--- a/WindowsFormsApp1/ActivitiesPlanHelpers/ReportForms/Report2.xlsx
+++ b/WindowsFormsApp1/ActivitiesPlanHelpers/ReportForms/Report2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectTER\Final\Energo-Info-master\WindowsFormsApp1\ActivitiesPlanHelpers\ReportForms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE223EF-EAFC-42AD-BA0E-11969FF453FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,27 +218,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -241,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,8 +243,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,6 +270,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,9 +354,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,6 +406,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -555,16 +598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -590,7 +633,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -614,446 +657,446 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="5" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="U13" s="12">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="9"/>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1"/>
@@ -1076,7 +1119,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1100,7 +1143,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1124,10 +1167,10 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -1152,11 +1195,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A8:V8"/>
     <mergeCell ref="A10:V10"/>
     <mergeCell ref="A12:V12"/>
     <mergeCell ref="H6:H7"/>
@@ -1165,9 +1203,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="N3:P5"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:T7"/>
     <mergeCell ref="U3:U7"/>
     <mergeCell ref="V3:V7"/>
@@ -1176,6 +1211,14 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="N3:P5"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="E3:G5"/>
@@ -1190,24 +1233,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
